--- a/GT New Horizons/mod汉化进度.xlsx
+++ b/GT New Horizons/mod汉化进度.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB22E8DB-6EA4-4BC4-8016-C52DECB84AC2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E02E0E-6695-4379-BE26-F472B2AA5E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="396">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1178,10 +1178,6 @@
   </si>
   <si>
     <t>2=无需资源包汉化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extratrees</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1565,7 +1561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -1611,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -1722,7 +1718,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -3352,7 +3348,7 @@
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
@@ -3562,8 +3558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3709,7 +3705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -3717,7 +3713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -3725,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>189</v>
       </c>
@@ -3733,7 +3729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>190</v>
       </c>
@@ -3741,7 +3737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>191</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>192</v>
       </c>
@@ -3757,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -3765,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>194</v>
       </c>
@@ -3773,7 +3769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>195</v>
       </c>
@@ -3781,7 +3777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -3789,7 +3785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>197</v>
       </c>
@@ -3797,18 +3793,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>198</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>199</v>
       </c>
@@ -3816,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>200</v>
       </c>
@@ -3824,7 +3817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -3832,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>202</v>
       </c>
@@ -4002,7 +3995,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -4026,7 +4019,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -4154,7 +4147,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B72">
         <v>3</v>
@@ -4370,7 +4363,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4674,7 +4667,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4890,7 +4883,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4917,7 +4910,7 @@
         <v>337</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -4930,7 +4923,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4938,7 +4931,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5002,7 +4995,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5050,7 +5043,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5058,7 +5051,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B185">
         <v>1</v>

--- a/GT New Horizons/mod汉化进度.xlsx
+++ b/GT New Horizons/mod汉化进度.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E02E0E-6695-4379-BE26-F472B2AA5E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE403BE-62DE-4EDB-9036-F2C09055B38F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="mod版本与更新日志" sheetId="1" r:id="rId1"/>
+    <sheet name="mod汉化状态" sheetId="2" r:id="rId2"/>
+    <sheet name="scripts汉化状态" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$375</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$B$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$32</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1235,6 +1237,147 @@
   <si>
     <t>Open Glasses 1.0.46</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adv-Solar-Panel</t>
+  </si>
+  <si>
+    <t>Advanced-Backpacks</t>
+  </si>
+  <si>
+    <t>AE2</t>
+  </si>
+  <si>
+    <t>Blood-Magic-Thaumcraft</t>
+  </si>
+  <si>
+    <t>Build-Craft</t>
+  </si>
+  <si>
+    <t>CoreMod</t>
+  </si>
+  <si>
+    <t>Emt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ender-IO</t>
+  </si>
+  <si>
+    <t>Extra-Bees</t>
+  </si>
+  <si>
+    <t>Forbidden-Magic-01-Wands</t>
+  </si>
+  <si>
+    <t>Forestry-Frames</t>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>Galaxy-Space</t>
+  </si>
+  <si>
+    <t>GraviSuite</t>
+  </si>
+  <si>
+    <t>Gregtech</t>
+  </si>
+  <si>
+    <t>Iron-Chests-Minecarts</t>
+  </si>
+  <si>
+    <t>Iron-Chests</t>
+  </si>
+  <si>
+    <t>Magic-Bees</t>
+  </si>
+  <si>
+    <t>Minecraft</t>
+  </si>
+  <si>
+    <t>Open-Blocks</t>
+  </si>
+  <si>
+    <t>Railcraft</t>
+  </si>
+  <si>
+    <t>Renaming</t>
+  </si>
+  <si>
+    <t>Tainted-Magic-1</t>
+  </si>
+  <si>
+    <t>Thaumcraft-03-Alchemy</t>
+  </si>
+  <si>
+    <t>Thaumic-Bases-01-Main</t>
+  </si>
+  <si>
+    <t>Thaumic-Exploration-01</t>
+  </si>
+  <si>
+    <t>ThaumicTinkerer-01</t>
+  </si>
+  <si>
+    <t>ThaumicTinkerer-02-Kami</t>
+  </si>
+  <si>
+    <t>Tinkers-Construct</t>
+  </si>
+  <si>
+    <t>Warp-Theory</t>
+  </si>
+  <si>
+    <t>Witchery</t>
+  </si>
+  <si>
+    <t>scripts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overrideName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addTooltip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0.6.2更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Mod 1.6.04</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.04</t>
+  </si>
+  <si>
+    <t>Nodal Mechanic 1.1.0-K</t>
+  </si>
+  <si>
+    <t>Open Computers 1.7.3.1258</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.3.8</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1273,12 +1416,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1559,1995 +1773,2063 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G375"/>
+  <dimension ref="A1:G380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="29.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G2" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="F6" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="F7" s="4" t="s">
         <v>360</v>
       </c>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>175</v>
-      </c>
-      <c r="C9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>362</v>
-      </c>
-      <c r="D10">
+        <v>173</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>363</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="G11" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>364</v>
-      </c>
-      <c r="D12">
+        <v>174</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="F12" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G12" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G13" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>366</v>
-      </c>
-      <c r="D14">
+        <v>175</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D14" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="C15" t="s">
-        <v>367</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>387</v>
-      </c>
-      <c r="D16">
+        <v>176</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>179</v>
-      </c>
-      <c r="C17" t="s">
-        <v>368</v>
-      </c>
-      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D17" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>369</v>
-      </c>
-      <c r="D18">
+        <v>177</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>6</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>178</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D20" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C21" t="s">
-        <v>370</v>
+        <v>7</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>179</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>182</v>
-      </c>
-      <c r="C23" t="s">
-        <v>371</v>
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D23" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>372</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="C25" t="s">
-        <v>373</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>12</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>184</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>185</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" t="s">
-        <v>378</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>190</v>
+      </c>
+      <c r="B44" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>197</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>29</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>208</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>209</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>210</v>
+        <v>36</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>211</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>212</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>213</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>41</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>43</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>46</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>47</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>48</v>
+        <v>218</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>49</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>223</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>226</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>224</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>227</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>55</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>229</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>57</v>
+        <v>227</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>230</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>231</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>59</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>232</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>47</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>237</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>238</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>64</v>
+        <v>236</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>239</v>
+        <v>63</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>65</v>
+        <v>237</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>66</v>
+        <v>238</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>64</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>68</v>
+        <v>240</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>244</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>245</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>71</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>72</v>
+        <v>244</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>247</v>
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>73</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>75</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>251</v>
+        <v>74</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>252</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>78</v>
+        <v>250</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>79</v>
+        <v>252</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>255</v>
+        <v>78</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>256</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>81</v>
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>257</v>
+        <v>79</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>82</v>
+        <v>255</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>258</v>
+        <v>80</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>83</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>259</v>
+        <v>81</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>84</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>82</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>85</v>
+        <v>258</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>261</v>
+        <v>83</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>86</v>
+        <v>259</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>87</v>
+        <v>260</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>263</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>89</v>
+        <v>262</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>265</v>
+        <v>87</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>90</v>
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>266</v>
+        <v>88</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>267</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>92</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>90</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>94</v>
+        <v>267</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>270</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>95</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>272</v>
+        <v>94</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>96</v>
+        <v>270</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>273</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>97</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>274</v>
+        <v>95</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>98</v>
+        <v>272</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>99</v>
+        <v>273</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>276</v>
+        <v>97</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>100</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>277</v>
+        <v>98</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>101</v>
+        <v>275</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>102</v>
+        <v>276</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>279</v>
+        <v>100</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>103</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>280</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>104</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>281</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>282</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>283</v>
+        <v>104</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>107</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>286</v>
+        <v>107</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>287</v>
+        <v>108</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>288</v>
+        <v>109</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>289</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>290</v>
+        <v>111</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>291</v>
+        <v>112</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>292</v>
+        <v>113</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>293</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>116</v>
+        <v>291</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>117</v>
+        <v>292</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>295</v>
+        <v>115</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>118</v>
+        <v>293</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>119</v>
+        <v>294</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>297</v>
+        <v>117</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>120</v>
+        <v>295</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>298</v>
+        <v>118</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>121</v>
+        <v>296</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>299</v>
+        <v>119</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>123</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>121</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>303</v>
+        <v>123</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>124</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>305</v>
+        <v>125</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>128</v>
+        <v>303</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>306</v>
+        <v>126</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>129</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>307</v>
+        <v>127</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>14</v>
+        <v>305</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>308</v>
+        <v>128</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>130</v>
+        <v>306</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>309</v>
+        <v>129</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>131</v>
+        <v>307</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>132</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>311</v>
+        <v>130</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>133</v>
+        <v>309</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>128</v>
+        <v>310</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>313</v>
+        <v>132</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>134</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>135</v>
+        <v>312</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>315</v>
+        <v>128</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>136</v>
+        <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>137</v>
+        <v>314</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>138</v>
+        <v>315</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>318</v>
+        <v>136</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>139</v>
+        <v>316</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>319</v>
+        <v>137</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>140</v>
+        <v>317</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>320</v>
+        <v>138</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>321</v>
+        <v>139</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>142</v>
+        <v>319</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>322</v>
+        <v>140</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>111</v>
+        <v>320</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>323</v>
+        <v>141</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>324</v>
+        <v>142</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>143</v>
+        <v>322</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>325</v>
+        <v>111</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>144</v>
+        <v>323</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>326</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>111</v>
+        <v>324</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>327</v>
+        <v>143</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>145</v>
+        <v>325</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>146</v>
+        <v>326</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>329</v>
+        <v>111</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>147</v>
+        <v>327</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>330</v>
+        <v>145</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>148</v>
+        <v>328</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>331</v>
+        <v>146</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>149</v>
+        <v>329</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>332</v>
+        <v>147</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>150</v>
+        <v>330</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>151</v>
+        <v>331</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>152</v>
+        <v>332</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>335</v>
+        <v>150</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>153</v>
+        <v>333</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>336</v>
+        <v>151</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>154</v>
+        <v>334</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>96</v>
+        <v>335</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>339</v>
+        <v>154</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>155</v>
+        <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>340</v>
+        <v>96</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>156</v>
+        <v>338</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>342</v>
+        <v>155</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>158</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>156</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>159</v>
+        <v>341</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>344</v>
+        <v>157</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>345</v>
+        <v>158</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>346</v>
+        <v>159</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>162</v>
+        <v>344</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>347</v>
+        <v>160</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>163</v>
+        <v>345</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>348</v>
+        <v>161</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>164</v>
+        <v>346</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>349</v>
+        <v>162</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>126</v>
+        <v>347</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>350</v>
+        <v>163</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>165</v>
+        <v>348</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>351</v>
+        <v>164</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>166</v>
+        <v>349</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>352</v>
+        <v>126</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>353</v>
+        <v>165</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>167</v>
+        <v>351</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>354</v>
+        <v>166</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>168</v>
+        <v>352</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>355</v>
+        <v>113</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>169</v>
+        <v>353</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>356</v>
+        <v>167</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>170</v>
+        <v>354</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>357</v>
+        <v>168</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>171</v>
+        <v>355</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>358</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D375" xr:uid="{18B790CB-2957-4AC5-9362-26D4AE83529F}"/>
+  <autoFilter ref="A6:D380" xr:uid="{18B790CB-2957-4AC5-9362-26D4AE83529F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3558,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5087,4 +5369,414 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28.5" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C5">
+        <v>870</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7">
+        <v>326</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C8">
+        <v>805</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11">
+        <v>132</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12">
+        <v>154</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>407</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>408</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>410</v>
+      </c>
+      <c r="C16">
+        <v>69</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19">
+        <v>189</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>414</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>416</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>418</v>
+      </c>
+      <c r="C24">
+        <v>584</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C25">
+        <v>138</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C26">
+        <v>168</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>421</v>
+      </c>
+      <c r="C27">
+        <v>435</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>422</v>
+      </c>
+      <c r="C28">
+        <v>381</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C29">
+        <v>174</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32">
+        <v>120</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H43" xr:uid="{4F126F61-AA49-451A-B5A2-594628A094AE}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GT New Horizons/mod汉化进度.xlsx
+++ b/GT New Horizons/mod汉化进度.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE403BE-62DE-4EDB-9036-F2C09055B38F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF7934-F6B7-43A9-B057-6C42E04D35E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mod版本与更新日志" sheetId="1" r:id="rId1"/>
-    <sheet name="mod汉化状态" sheetId="2" r:id="rId2"/>
+    <sheet name="mod汉化状态" sheetId="2" r:id="rId1"/>
+    <sheet name="mod版本与更新日志" sheetId="1" r:id="rId2"/>
     <sheet name="scripts汉化状态" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mod版本与更新日志!$A$6:$D$380</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mod汉化状态!$A$1:$B$188</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">scripts汉化状态!$A$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -1772,10 +1772,1545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
+  <dimension ref="A1:E188"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="58.5" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>207</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>214</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>382</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>224</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>383</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>229</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>231</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>232</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>234</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>237</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>239</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>240</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>243</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>244</v>
+      </c>
+      <c r="B74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>249</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>251</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>253</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>260</v>
+      </c>
+      <c r="B90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>261</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>262</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>263</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>265</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>267</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>385</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>270</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>273</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>283</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>284</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>285</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>286</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>287</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>288</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>289</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>290</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>291</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>292</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>294</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>295</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>296</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>298</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>299</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>301</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>302</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>303</v>
+      </c>
+      <c r="B133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>304</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>305</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>306</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>386</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>308</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>309</v>
+      </c>
+      <c r="B139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>311</v>
+      </c>
+      <c r="B141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>312</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>313</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>314</v>
+      </c>
+      <c r="B144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>315</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>316</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>317</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>318</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>319</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>320</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>321</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>322</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>323</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>324</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>325</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>326</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>327</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>328</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>329</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>331</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>332</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>333</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>388</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>335</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>336</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>337</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>338</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>390</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>389</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>341</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>342</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>344</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>345</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>347</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>392</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>349</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>350</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>351</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>352</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>353</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>394</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>393</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>356</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>358</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B188" xr:uid="{348103F4-7D95-47F6-8E06-BD261AE2E713}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -3836,1547 +5371,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
-  <dimension ref="A1:E188"/>
-  <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="58.5" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>184</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>194</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>200</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>201</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>204</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>205</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>208</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>211</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>212</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>217</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>221</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>222</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>382</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>224</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>225</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>383</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>227</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>229</v>
-      </c>
-      <c r="B59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>230</v>
-      </c>
-      <c r="B60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>231</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>232</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>233</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>234</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>235</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>236</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>238</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>239</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>240</v>
-      </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>241</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>384</v>
-      </c>
-      <c r="B72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>243</v>
-      </c>
-      <c r="B73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>244</v>
-      </c>
-      <c r="B74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>245</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>246</v>
-      </c>
-      <c r="B76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>247</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>248</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>249</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>250</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>251</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>252</v>
-      </c>
-      <c r="B82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>253</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>254</v>
-      </c>
-      <c r="B84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>255</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>256</v>
-      </c>
-      <c r="B86">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>257</v>
-      </c>
-      <c r="B87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>259</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>260</v>
-      </c>
-      <c r="B90">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>261</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>262</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>263</v>
-      </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>264</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>265</v>
-      </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>266</v>
-      </c>
-      <c r="B96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>267</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>268</v>
-      </c>
-      <c r="B98">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>385</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>270</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>271</v>
-      </c>
-      <c r="B101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>272</v>
-      </c>
-      <c r="B102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>273</v>
-      </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>274</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>275</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>276</v>
-      </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>277</v>
-      </c>
-      <c r="B107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>278</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>279</v>
-      </c>
-      <c r="B109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>280</v>
-      </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>281</v>
-      </c>
-      <c r="B111">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>282</v>
-      </c>
-      <c r="B112">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>283</v>
-      </c>
-      <c r="B113">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>284</v>
-      </c>
-      <c r="B114">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>285</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>286</v>
-      </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>287</v>
-      </c>
-      <c r="B117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>288</v>
-      </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>289</v>
-      </c>
-      <c r="B119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>290</v>
-      </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>291</v>
-      </c>
-      <c r="B121">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>292</v>
-      </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>293</v>
-      </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>294</v>
-      </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>295</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>296</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>297</v>
-      </c>
-      <c r="B127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>298</v>
-      </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>299</v>
-      </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>300</v>
-      </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>301</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>302</v>
-      </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>303</v>
-      </c>
-      <c r="B133">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>304</v>
-      </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>305</v>
-      </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>306</v>
-      </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>386</v>
-      </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>308</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>309</v>
-      </c>
-      <c r="B139">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>310</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>311</v>
-      </c>
-      <c r="B141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>312</v>
-      </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>313</v>
-      </c>
-      <c r="B143">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>314</v>
-      </c>
-      <c r="B144">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>315</v>
-      </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>316</v>
-      </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>317</v>
-      </c>
-      <c r="B147">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>318</v>
-      </c>
-      <c r="B148">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>319</v>
-      </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>320</v>
-      </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>321</v>
-      </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>322</v>
-      </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>323</v>
-      </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>324</v>
-      </c>
-      <c r="B154">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>325</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>326</v>
-      </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>327</v>
-      </c>
-      <c r="B157">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>328</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>329</v>
-      </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>330</v>
-      </c>
-      <c r="B160">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>331</v>
-      </c>
-      <c r="B161">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>332</v>
-      </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>333</v>
-      </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>388</v>
-      </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>335</v>
-      </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>336</v>
-      </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>337</v>
-      </c>
-      <c r="B167">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>338</v>
-      </c>
-      <c r="B168">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>390</v>
-      </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>389</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>341</v>
-      </c>
-      <c r="B171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>342</v>
-      </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>343</v>
-      </c>
-      <c r="B173">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>344</v>
-      </c>
-      <c r="B174">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>345</v>
-      </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>346</v>
-      </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>347</v>
-      </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>392</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>349</v>
-      </c>
-      <c r="B179">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>350</v>
-      </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>351</v>
-      </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>352</v>
-      </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>353</v>
-      </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>394</v>
-      </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>393</v>
-      </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>356</v>
-      </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>357</v>
-      </c>
-      <c r="B187">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>358</v>
-      </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B188" xr:uid="{348103F4-7D95-47F6-8E06-BD261AE2E713}"/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5457,6 +5457,9 @@
       <c r="A5" t="s">
         <v>399</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>870</v>
       </c>
@@ -5471,6 +5474,9 @@
       <c r="A6" t="s">
         <v>400</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>15</v>
       </c>
@@ -5482,6 +5488,9 @@
       <c r="A7" t="s">
         <v>401</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
       <c r="C7">
         <v>326</v>
       </c>
@@ -5493,6 +5502,9 @@
       <c r="A8" t="s">
         <v>402</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
       <c r="C8">
         <v>805</v>
       </c>
@@ -5504,6 +5516,9 @@
       <c r="A9" t="s">
         <v>403</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
       <c r="C9">
         <v>1</v>
       </c>
@@ -5515,6 +5530,9 @@
       <c r="A10" t="s">
         <v>404</v>
       </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
       <c r="C10">
         <v>41</v>
       </c>
@@ -5526,6 +5544,9 @@
       <c r="A11" t="s">
         <v>405</v>
       </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
       <c r="C11">
         <v>132</v>
       </c>
@@ -5537,6 +5558,9 @@
       <c r="A12" t="s">
         <v>406</v>
       </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
       <c r="C12">
         <v>154</v>
       </c>
@@ -5548,6 +5572,9 @@
       <c r="A13" t="s">
         <v>407</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13">
         <v>25</v>
       </c>
@@ -5562,6 +5589,9 @@
       <c r="A14" t="s">
         <v>408</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
       <c r="C14">
         <v>2</v>
       </c>
@@ -5587,6 +5617,9 @@
       <c r="A16" t="s">
         <v>410</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
       <c r="C16">
         <v>69</v>
       </c>
@@ -5598,6 +5631,9 @@
       <c r="A17" t="s">
         <v>411</v>
       </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
@@ -5609,6 +5645,9 @@
       <c r="A18" t="s">
         <v>412</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
       <c r="C18">
         <v>3</v>
       </c>
@@ -5631,6 +5670,9 @@
       <c r="A20" t="s">
         <v>414</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
       <c r="C20">
         <v>9</v>
       </c>
@@ -5642,6 +5684,9 @@
       <c r="A21" t="s">
         <v>415</v>
       </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
       <c r="C21">
         <v>10</v>
       </c>
@@ -5653,6 +5698,9 @@
       <c r="A22" t="s">
         <v>416</v>
       </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
       <c r="C22">
         <v>74</v>
       </c>
@@ -5664,6 +5712,9 @@
       <c r="A23" t="s">
         <v>417</v>
       </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
       <c r="C23">
         <v>14</v>
       </c>
@@ -5689,6 +5740,9 @@
       <c r="A25" t="s">
         <v>419</v>
       </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
       <c r="C25">
         <v>138</v>
       </c>
@@ -5700,6 +5754,9 @@
       <c r="A26" t="s">
         <v>420</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
       <c r="C26">
         <v>168</v>
       </c>
@@ -5722,6 +5779,9 @@
       <c r="A28" t="s">
         <v>422</v>
       </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
       <c r="C28">
         <v>381</v>
       </c>
@@ -5733,6 +5793,9 @@
       <c r="A29" t="s">
         <v>423</v>
       </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
       <c r="C29">
         <v>174</v>
       </c>
@@ -5744,6 +5807,9 @@
       <c r="A30" t="s">
         <v>424</v>
       </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
       <c r="C30">
         <v>6</v>
       </c>
@@ -5754,6 +5820,9 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>425</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
       </c>
       <c r="C31">
         <v>41</v>

--- a/GT New Horizons/mod汉化进度.xlsx
+++ b/GT New Horizons/mod汉化进度.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDF7934-F6B7-43A9-B057-6C42E04D35E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341BC5F2-D772-44D8-B8B5-A6EAE49706A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mod汉化状态" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="454">
   <si>
     <t>1.7.10-3.5.1a</t>
   </si>
@@ -1378,6 +1378,50 @@
   </si>
   <si>
     <t>Tec Tech 3.3.8</t>
+  </si>
+  <si>
+    <t>New Mods</t>
+  </si>
+  <si>
+    <t>Bartworks 0.3.21</t>
+  </si>
+  <si>
+    <t>Core Mod 1.6.07</t>
+  </si>
+  <si>
+    <t>Electromagictools 1.2.7.5</t>
+  </si>
+  <si>
+    <t>Gregtech 5.09.33.10</t>
+  </si>
+  <si>
+    <t>GT++ 1.7.03.89</t>
+  </si>
+  <si>
+    <t>IFU 1.5</t>
+  </si>
+  <si>
+    <t>Open Computers 1.7.4.1265</t>
+  </si>
+  <si>
+    <t>Open Security 1.0.117</t>
+  </si>
+  <si>
+    <t>Special Mobs 3.3.1</t>
+  </si>
+  <si>
+    <t>Tec Tech 3.3.9</t>
+  </si>
+  <si>
+    <t>Witching Gadgets 1.2.9h</t>
+  </si>
+  <si>
+    <t>2.0.6.8更新日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waila Plugins 0.2.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1775,7 +1819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6D76FF-7B7A-4144-94EA-02F6969C5E2B}">
   <dimension ref="A1:E188"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
@@ -3308,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3319,25 +3363,26 @@
     <col min="1" max="1" width="47.375" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="26.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>377</v>
       </c>
@@ -3349,8 +3394,12 @@
         <v>434</v>
       </c>
       <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -3362,8 +3411,12 @@
         <v>360</v>
       </c>
       <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>172</v>
       </c>
@@ -3371,8 +3424,10 @@
       <c r="D8" s="5"/>
       <c r="F8" s="4"/>
       <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -3388,8 +3443,14 @@
       <c r="G9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -3401,8 +3462,10 @@
       <c r="G10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3414,8 +3477,10 @@
       <c r="G11" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>174</v>
       </c>
@@ -3429,8 +3494,12 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -3442,8 +3511,10 @@
       <c r="G13" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>175</v>
       </c>
@@ -3453,8 +3524,14 @@
       <c r="D14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I14" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3464,8 +3541,14 @@
       <c r="D15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -3475,8 +3558,14 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I16" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -3486,8 +3575,14 @@
       <c r="D17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I17" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -3497,8 +3592,14 @@
       <c r="D18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I18" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -3508,8 +3609,14 @@
       <c r="D19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I19" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -3519,8 +3626,14 @@
       <c r="D20" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I20" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -3530,8 +3643,14 @@
       <c r="D21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I21" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="J21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -3541,8 +3660,14 @@
       <c r="D22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I22" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J22" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -3552,22 +3677,34 @@
       <c r="D23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I23" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="J23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>180</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="I24" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>181</v>
       </c>
@@ -3576,14 +3713,14 @@
       </c>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3592,7 +3729,7 @@
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -3601,7 +3738,7 @@
       </c>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>183</v>
       </c>
@@ -3610,12 +3747,12 @@
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>184</v>
       </c>
@@ -5375,8 +5512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71007397-2B0D-4BB6-B0F3-18031B513299}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5659,6 +5796,9 @@
       <c r="A19" t="s">
         <v>413</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
       <c r="C19">
         <v>189</v>
       </c>
@@ -5729,6 +5869,9 @@
       <c r="A24" t="s">
         <v>418</v>
       </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
       <c r="C24">
         <v>584</v>
       </c>
@@ -5768,6 +5911,9 @@
       <c r="A27" t="s">
         <v>421</v>
       </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
       <c r="C27">
         <v>435</v>
       </c>
@@ -5834,6 +5980,9 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>426</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
       </c>
       <c r="C32">
         <v>120</v>
